--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1225,7 +1225,7 @@
         <v>37.22</v>
       </c>
       <c r="G7">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H7">
         <v>2.44</v>
@@ -1279,16 +1279,16 @@
         <v>111.86</v>
       </c>
       <c r="Y7">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z7">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA7">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB7">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC7">
         <v>1053.49</v>
@@ -1303,7 +1303,7 @@
         <v>6.67</v>
       </c>
       <c r="AG7">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH7">
         <v>0.44</v>
@@ -1555,7 +1555,7 @@
         <v>2.81</v>
       </c>
       <c r="G10">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H10">
         <v>1.83</v>
@@ -1609,16 +1609,16 @@
         <v>27.82</v>
       </c>
       <c r="Y10">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z10">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA10">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB10">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC10">
         <v>57.47</v>
@@ -1633,7 +1633,7 @@
         <v>1.2</v>
       </c>
       <c r="AG10">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH10">
         <v>0.78</v>
@@ -1665,7 +1665,7 @@
         <v>-5.68</v>
       </c>
       <c r="G11">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H11">
         <v>1.68</v>
@@ -1695,7 +1695,7 @@
         <v>-506.66</v>
       </c>
       <c r="Q11">
-        <v>-57.72230769230769</v>
+        <v>-57.72</v>
       </c>
       <c r="R11">
         <v>324.39</v>
@@ -1719,16 +1719,16 @@
         <v>39.38</v>
       </c>
       <c r="Y11">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z11">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA11">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB11">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC11">
         <v>70.90000000000001</v>
@@ -1743,7 +1743,7 @@
         <v>2.46</v>
       </c>
       <c r="AG11">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH11">
         <v>-0.73</v>
@@ -1885,7 +1885,7 @@
         <v>-15.42</v>
       </c>
       <c r="G13">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H13">
         <v>0.73</v>
@@ -1915,7 +1915,7 @@
         <v>-925.41</v>
       </c>
       <c r="Q13">
-        <v>-57.72230769230769</v>
+        <v>-57.72</v>
       </c>
       <c r="R13">
         <v>15.78</v>
@@ -1924,7 +1924,7 @@
         <v>-6.36</v>
       </c>
       <c r="T13">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="U13">
         <v>0.68</v>
@@ -1939,16 +1939,16 @@
         <v>19.11</v>
       </c>
       <c r="Y13">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z13">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA13">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB13">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC13">
         <v>25.24</v>
@@ -1963,7 +1963,7 @@
         <v>2.98</v>
       </c>
       <c r="AG13">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH13">
         <v>-0.14</v>
@@ -1995,7 +1995,7 @@
         <v>-41.93</v>
       </c>
       <c r="G14">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H14">
         <v>0.66</v>
@@ -2025,7 +2025,7 @@
         <v>-928.97</v>
       </c>
       <c r="Q14">
-        <v>-57.72230769230769</v>
+        <v>-57.72</v>
       </c>
       <c r="R14">
         <v>-2.44</v>
@@ -2034,7 +2034,7 @@
         <v>-7.61</v>
       </c>
       <c r="T14">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="U14">
         <v>0.82</v>
@@ -2049,16 +2049,16 @@
         <v>19.51</v>
       </c>
       <c r="Y14">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z14">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA14">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB14">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC14">
         <v>15.54</v>
@@ -2073,7 +2073,7 @@
         <v>2.01</v>
       </c>
       <c r="AG14">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH14">
         <v>-0.03</v>
@@ -2105,7 +2105,7 @@
         <v>-48.41</v>
       </c>
       <c r="G15">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H15">
         <v>0.67</v>
@@ -2135,7 +2135,7 @@
         <v>-956.91</v>
       </c>
       <c r="Q15">
-        <v>-57.72230769230769</v>
+        <v>-57.72</v>
       </c>
       <c r="R15">
         <v>14.29</v>
@@ -2144,7 +2144,7 @@
         <v>-11.42</v>
       </c>
       <c r="T15">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="U15">
         <v>1.19</v>
@@ -2156,19 +2156,19 @@
         <v>0.09</v>
       </c>
       <c r="X15">
-        <v>66.541875</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="Y15">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z15">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA15">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB15">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC15">
         <v>29.22</v>
@@ -2183,7 +2183,7 @@
         <v>3.7</v>
       </c>
       <c r="AG15">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH15">
         <v>-0.05</v>
@@ -2215,7 +2215,7 @@
         <v>-49.7</v>
       </c>
       <c r="G16">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H16">
         <v>0.75</v>
@@ -2245,7 +2245,7 @@
         <v>-172.13</v>
       </c>
       <c r="Q16">
-        <v>-57.72230769230769</v>
+        <v>-57.72</v>
       </c>
       <c r="R16">
         <v>-15.75</v>
@@ -2254,7 +2254,7 @@
         <v>-2.84</v>
       </c>
       <c r="T16">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="U16">
         <v>1.65</v>
@@ -2266,19 +2266,19 @@
         <v>0.1</v>
       </c>
       <c r="X16">
-        <v>66.541875</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="Y16">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z16">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA16">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB16">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC16">
         <v>20.66</v>
@@ -2293,7 +2293,7 @@
         <v>2.32</v>
       </c>
       <c r="AG16">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH16">
         <v>-0.04</v>
@@ -2435,7 +2435,7 @@
         <v>-56.91</v>
       </c>
       <c r="G18">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H18">
         <v>0.23</v>
@@ -2465,7 +2465,7 @@
         <v>-1752.16</v>
       </c>
       <c r="Q18">
-        <v>-57.72230769230769</v>
+        <v>-57.72</v>
       </c>
       <c r="R18">
         <v>11.03</v>
@@ -2474,7 +2474,7 @@
         <v>-10.58</v>
       </c>
       <c r="T18">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="U18">
         <v>0.6</v>
@@ -2486,19 +2486,19 @@
         <v>0.09</v>
       </c>
       <c r="X18">
-        <v>66.541875</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="Y18">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z18">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA18">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB18">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC18">
         <v>19.91</v>
@@ -2513,7 +2513,7 @@
         <v>7.12</v>
       </c>
       <c r="AG18">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH18">
         <v>-0.03</v>
@@ -2545,7 +2545,7 @@
         <v>-58.22</v>
       </c>
       <c r="G19">
-        <v>0.7818181818181817</v>
+        <v>0.78</v>
       </c>
       <c r="H19">
         <v>0.04</v>
@@ -2575,7 +2575,7 @@
         <v>-3713.72</v>
       </c>
       <c r="Q19">
-        <v>-57.72230769230769</v>
+        <v>-57.72</v>
       </c>
       <c r="R19">
         <v>-4.21</v>
@@ -2584,10 +2584,10 @@
         <v>-3.91</v>
       </c>
       <c r="T19">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="U19">
-        <v>8.289473684210526</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="V19">
         <v>0.09</v>
@@ -2596,19 +2596,19 @@
         <v>0.09</v>
       </c>
       <c r="X19">
-        <v>66.541875</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="Y19">
-        <v>5.608181818181818</v>
+        <v>5.61</v>
       </c>
       <c r="Z19">
-        <v>3.669090909090909</v>
+        <v>3.67</v>
       </c>
       <c r="AA19">
-        <v>39.84636363636363</v>
+        <v>39.85</v>
       </c>
       <c r="AB19">
-        <v>41.78545454545454</v>
+        <v>41.79</v>
       </c>
       <c r="AC19">
         <v>36.67</v>
@@ -2623,7 +2623,7 @@
         <v>88.11</v>
       </c>
       <c r="AG19">
-        <v>39.84181818181818</v>
+        <v>39.84</v>
       </c>
       <c r="AH19">
         <v>-0.05</v>
